--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_3_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2429374.762733917</v>
+        <v>2422201.474023634</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9644286.958818626</v>
+        <v>9644286.958818628</v>
       </c>
     </row>
     <row r="11">
@@ -667,58 +667,58 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>252.8988326552593</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="G2" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.3343897888113</v>
+      </c>
+      <c r="V2" t="n">
         <v>276.1565137023554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>276.1565137023554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>165.6820030180015</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>141.0252816852793</v>
-      </c>
-      <c r="S2" t="n">
-        <v>205.8118405263978</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>146.5897220818559</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.23502820634551</v>
       </c>
     </row>
     <row r="4">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>175.1311939478779</v>
+        <v>175.1311939478778</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>372.039630846421</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>332.4181858992055</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>152.2091900483943</v>
       </c>
       <c r="G5" t="n">
-        <v>14.83013367771038</v>
+        <v>14.83013367771037</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>120.1819171385219</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>198.2506096409305</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.0270262658048</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.17339989484217</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>109.7932973455552</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.69052336281895</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>84.45800155129703</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>166.9863082141302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>105.9320176238587</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.9705583486984</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.41045236322691</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>167.7613787255182</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>46.41420027816436</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>109.0522721046906</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>150.8400357509149</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>155.8860385675335</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722629</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>179.9063415975612</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441641801</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229277</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>47.20011114811116</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1824,10 +1824,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701358</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>27.55584844405769</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>242.1333799018697</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>66.140852155354</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>21.66714102769306</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>194.8685508559303</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>49.12199829633348</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>189.9664086064136</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.3808996750722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>124.8388016343881</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>143.9705362099828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>9.152407598113488</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.900916560956794</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273978</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>64.32381826160521</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>45.37449962547137</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>754.2855273228791</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="C2" t="n">
-        <v>754.2855273228791</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="D2" t="n">
-        <v>754.2855273228791</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="E2" t="n">
-        <v>754.2855273228791</v>
+        <v>316.353594055456</v>
       </c>
       <c r="F2" t="n">
-        <v>747.3400265736757</v>
+        <v>37.40762061873335</v>
       </c>
       <c r="G2" t="n">
-        <v>468.394053136953</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H2" t="n">
-        <v>189.4480797002303</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I2" t="n">
         <v>22.09252109618843</v>
       </c>
       <c r="J2" t="n">
-        <v>22.09252109618842</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K2" t="n">
         <v>142.8373253438683</v>
@@ -4354,28 +4354,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R2" t="n">
-        <v>962.1762753293416</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S2" t="n">
-        <v>754.2855273228791</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T2" t="n">
-        <v>754.2855273228791</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U2" t="n">
-        <v>754.2855273228791</v>
+        <v>850.7529338106224</v>
       </c>
       <c r="V2" t="n">
-        <v>754.2855273228791</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="W2" t="n">
-        <v>754.2855273228791</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="X2" t="n">
-        <v>754.2855273228791</v>
+        <v>571.8069603738998</v>
       </c>
       <c r="Y2" t="n">
-        <v>754.2855273228791</v>
+        <v>571.8069603738998</v>
       </c>
     </row>
     <row r="3">
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>484.1346958100205</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="C3" t="n">
-        <v>309.6816665288935</v>
+        <v>160.7472568676422</v>
       </c>
       <c r="D3" t="n">
         <v>160.7472568676422</v>
@@ -4409,52 +4409,52 @@
         <v>22.09252109618843</v>
       </c>
       <c r="J3" t="n">
-        <v>28.39914141318534</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K3" t="n">
-        <v>165.799003153448</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L3" t="n">
-        <v>165.799003153448</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M3" t="n">
-        <v>367.8501726635176</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N3" t="n">
-        <v>641.2451212288495</v>
+        <v>815.037884819553</v>
       </c>
       <c r="O3" t="n">
-        <v>907.7419348121333</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P3" t="n">
-        <v>1104.626054809422</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="Q3" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T3" t="n">
-        <v>1008.180757940351</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U3" t="n">
-        <v>1008.180757940351</v>
+        <v>876.4074424435694</v>
       </c>
       <c r="V3" t="n">
-        <v>1008.180757940351</v>
+        <v>641.2553342118267</v>
       </c>
       <c r="W3" t="n">
-        <v>860.1103315950425</v>
+        <v>387.0179774836251</v>
       </c>
       <c r="X3" t="n">
-        <v>860.1103315950425</v>
+        <v>179.1664772780923</v>
       </c>
       <c r="Y3" t="n">
-        <v>652.3500328300886</v>
+        <v>160.7472568676422</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="C4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="D4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="E4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="F4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="G4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="H4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="I4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="J4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="K4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="L4" t="n">
-        <v>964.335235071213</v>
+        <v>58.70189726492713</v>
       </c>
       <c r="M4" t="n">
-        <v>1013.323812322354</v>
+        <v>107.6904745160686</v>
       </c>
       <c r="N4" t="n">
-        <v>1066.582167123171</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O4" t="n">
-        <v>1099.758582381748</v>
+        <v>194.1252445754622</v>
       </c>
       <c r="P4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="Q4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="R4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="S4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="T4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="U4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="V4" t="n">
-        <v>1104.626054809422</v>
+        <v>198.9927170031358</v>
       </c>
       <c r="W4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="X4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
       <c r="Y4" t="n">
-        <v>927.7258589024743</v>
+        <v>22.09252109618843</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1114.6927651246</v>
+        <v>567.4522770304534</v>
       </c>
       <c r="C5" t="n">
-        <v>745.7302481841887</v>
+        <v>198.4897600900417</v>
       </c>
       <c r="D5" t="n">
-        <v>387.4645495774382</v>
+        <v>198.4897600900417</v>
       </c>
       <c r="E5" t="n">
-        <v>51.68860422470534</v>
+        <v>198.4897600900417</v>
       </c>
       <c r="F5" t="n">
-        <v>44.74310347550187</v>
+        <v>44.74310347550194</v>
       </c>
       <c r="G5" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H5" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I5" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J5" t="n">
-        <v>57.64391735380332</v>
+        <v>57.64391735380366</v>
       </c>
       <c r="K5" t="n">
-        <v>220.1747338456863</v>
+        <v>220.1747338456871</v>
       </c>
       <c r="L5" t="n">
-        <v>474.0852112039949</v>
+        <v>474.0852112039962</v>
       </c>
       <c r="M5" t="n">
-        <v>773.2160860494121</v>
+        <v>773.216086049414</v>
       </c>
       <c r="N5" t="n">
-        <v>1062.555213635716</v>
+        <v>1062.555213635719</v>
       </c>
       <c r="O5" t="n">
-        <v>1290.582309293122</v>
+        <v>1290.582309293125</v>
       </c>
       <c r="P5" t="n">
-        <v>1447.523776935873</v>
+        <v>1447.523776935876</v>
       </c>
       <c r="Q5" t="n">
-        <v>1488.15852338568</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R5" t="n">
-        <v>1488.15852338568</v>
+        <v>1366.762647488187</v>
       </c>
       <c r="S5" t="n">
-        <v>1488.15852338568</v>
+        <v>1166.509506436742</v>
       </c>
       <c r="T5" t="n">
-        <v>1488.15852338568</v>
+        <v>943.2498839460302</v>
       </c>
       <c r="U5" t="n">
-        <v>1488.15852338568</v>
+        <v>943.2498839460302</v>
       </c>
       <c r="V5" t="n">
-        <v>1488.15852338568</v>
+        <v>943.2498839460302</v>
       </c>
       <c r="W5" t="n">
-        <v>1488.15852338568</v>
+        <v>943.2498839460302</v>
       </c>
       <c r="X5" t="n">
-        <v>1114.6927651246</v>
+        <v>943.2498839460302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.6927651246</v>
+        <v>943.2498839460302</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222.1710701731421</v>
+        <v>414.9419224351851</v>
       </c>
       <c r="C6" t="n">
-        <v>222.1710701731421</v>
+        <v>240.488893154058</v>
       </c>
       <c r="D6" t="n">
-        <v>222.1710701731421</v>
+        <v>91.55448349280678</v>
       </c>
       <c r="E6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="F6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="G6" t="n">
-        <v>222.1710701731421</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H6" t="n">
-        <v>111.2687496220762</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I6" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J6" t="n">
-        <v>52.67537262782798</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="K6" t="n">
-        <v>218.4568186361402</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="L6" t="n">
-        <v>502.7748277822756</v>
+        <v>314.0811796138495</v>
       </c>
       <c r="M6" t="n">
-        <v>502.7748277822756</v>
+        <v>581.0776013314389</v>
       </c>
       <c r="N6" t="n">
-        <v>848.0470181903894</v>
+        <v>949.3968358693958</v>
       </c>
       <c r="O6" t="n">
-        <v>1156.361899562708</v>
+        <v>1257.711717241714</v>
       </c>
       <c r="P6" t="n">
-        <v>1386.808705706677</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="Q6" t="n">
-        <v>1488.15852338568</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="R6" t="n">
-        <v>1402.847410707602</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="S6" t="n">
-        <v>1234.174372107471</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="T6" t="n">
-        <v>1234.174372107471</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="U6" t="n">
-        <v>1127.172334103573</v>
+        <v>1488.158523385684</v>
       </c>
       <c r="V6" t="n">
-        <v>892.0202258718305</v>
+        <v>1253.006415153941</v>
       </c>
       <c r="W6" t="n">
-        <v>637.7828691436289</v>
+        <v>998.7690584257398</v>
       </c>
       <c r="X6" t="n">
-        <v>429.931368938096</v>
+        <v>790.917558220207</v>
       </c>
       <c r="Y6" t="n">
-        <v>222.1710701731421</v>
+        <v>583.1572594552531</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29.7631704677136</v>
+        <v>315.203606191866</v>
       </c>
       <c r="C7" t="n">
-        <v>29.7631704677136</v>
+        <v>179.8798098800494</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="E7" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="F7" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="G7" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="H7" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="J7" t="n">
-        <v>29.7631704677136</v>
+        <v>29.76317046771368</v>
       </c>
       <c r="K7" t="n">
-        <v>32.09990175888103</v>
+        <v>32.09990175888129</v>
       </c>
       <c r="L7" t="n">
-        <v>90.61654790611166</v>
+        <v>90.61654790611215</v>
       </c>
       <c r="M7" t="n">
-        <v>162.7032697236672</v>
+        <v>162.703269723668</v>
       </c>
       <c r="N7" t="n">
-        <v>238.51054684</v>
+        <v>238.510546840001</v>
       </c>
       <c r="O7" t="n">
-        <v>292.5145415057921</v>
+        <v>292.5145415057933</v>
       </c>
       <c r="P7" t="n">
-        <v>315.2036061918646</v>
+        <v>315.203606191866</v>
       </c>
       <c r="Q7" t="n">
-        <v>246.1021391583021</v>
+        <v>315.203606191866</v>
       </c>
       <c r="R7" t="n">
-        <v>76.64620105171801</v>
+        <v>315.203606191866</v>
       </c>
       <c r="S7" t="n">
-        <v>29.7631704677136</v>
+        <v>315.203606191866</v>
       </c>
       <c r="T7" t="n">
-        <v>29.7631704677136</v>
+        <v>315.203606191866</v>
       </c>
       <c r="U7" t="n">
-        <v>29.7631704677136</v>
+        <v>315.203606191866</v>
       </c>
       <c r="V7" t="n">
-        <v>29.7631704677136</v>
+        <v>315.203606191866</v>
       </c>
       <c r="W7" t="n">
-        <v>29.7631704677136</v>
+        <v>315.203606191866</v>
       </c>
       <c r="X7" t="n">
-        <v>29.7631704677136</v>
+        <v>315.203606191866</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.7631704677136</v>
+        <v>315.203606191866</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,52 +4804,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641998</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598715</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4965,49 +4965,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750356</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750356</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5068,25 +5068,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033469</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>727.647686332073</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
@@ -5305,16 +5305,16 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5366,7 +5366,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.0071030383442</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>675.0071030383442</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>675.0071030383442</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684814</v>
+        <v>291.7839189057833</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>144.8939714078729</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>675.0071030383442</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>675.0071030383442</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>675.0071030383442</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.0071030383442</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>272.964375390212</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>272.964375390212</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>125.0512818078189</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>125.0512818078189</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028587</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>965.2084601534104</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>675.7912901164499</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>447.8017392184325</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y19" t="n">
-        <v>447.8017392184325</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,49 +5737,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5989,28 +5989,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6074,13 +6074,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
         <v>2331.418122136705</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1477.030269519829</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.901630733387</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2171425274998</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>643.7999724905393</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
@@ -6311,13 +6311,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>991.0842369787849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>991.0842369787849</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>991.0842369787849</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>991.0842369787849</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>991.0842369787849</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>991.0842369787849</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.0842369787849</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6548,13 +6548,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.1830073829216</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6654,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1449.298090460596</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1194.613602254709</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>1194.613602254709</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>966.6240513566914</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y31" t="n">
-        <v>745.8314722131613</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="32">
@@ -6679,49 +6679,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6739,7 +6739,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M33" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028587</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>265.3924131404652</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3628.091576844582</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.679669945423</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>4399.894254734928</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>4110.765615948486</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V37" t="n">
-        <v>3856.081127742599</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="W37" t="n">
-        <v>3856.081127742599</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X37" t="n">
-        <v>3628.091576844582</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y37" t="n">
-        <v>3628.091576844582</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="38">
@@ -7174,25 +7174,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
@@ -7201,7 +7201,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7408,16 +7408,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7426,31 +7426,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
@@ -7496,19 +7496,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3630.011694582924</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>3461.075511655017</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4549.859459491671</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4549.859459491671</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>4549.859459491671</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>4260.442289454711</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>4032.452738556693</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>3811.660159413163</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805459</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822452</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>273.7252366379396</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.083442653386</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.954803866944</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1163.954803866944</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>874.5376338299834</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>646.5480829319661</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>425.7555037884359</v>
+        <v>441.900558318119</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810002</v>
       </c>
       <c r="L3" t="n">
-        <v>122.1984598562865</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>327.1395372443068</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9064735273547</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3661252938572</v>
+        <v>153.6907277247511</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>102.9473967948386</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.00923094357606</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>78.06372243715228</v>
+        <v>347.7570777074442</v>
       </c>
       <c r="N6" t="n">
-        <v>414.3354383916488</v>
+        <v>437.6152809470453</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>107.7037345247344</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719089</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9722,16 +9722,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10196,16 +10196,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,22 +11144,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>44.17985890344634</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>106.6166567390298</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.669541502405</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>119.2934573152664</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>138.9377200193199</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23943,19 +23943,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10.00426342195834</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>44.27839330891798</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>199.8804200306962</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>64.30500338171971</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>26.67901020245895</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24894,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>237.1153541022439</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>35.7432467826236</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.1420986615188</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.08200834921512</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>108.1671071138452</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>158.0944135005143</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>146.7145564572556</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>84.59001010593092</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>176.1730614329179</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>822996.3863585981</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822996.3863585984</v>
+        <v>822996.3863585982</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
       <c r="E2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="F2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196781</v>
       </c>
       <c r="G2" t="n">
-        <v>566992.1366196783</v>
+        <v>566992.1366196777</v>
       </c>
       <c r="H2" t="n">
         <v>566992.136619678</v>
@@ -26337,7 +26337,7 @@
         <v>566992.136619678</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.136619678</v>
       </c>
       <c r="K2" t="n">
         <v>566992.1366196781</v>
@@ -26346,13 +26346,13 @@
         <v>566992.136619678</v>
       </c>
       <c r="M2" t="n">
-        <v>566992.1366196781</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="N2" t="n">
+        <v>566992.136619678</v>
+      </c>
+      <c r="O2" t="n">
         <v>566992.1366196782</v>
-      </c>
-      <c r="O2" t="n">
-        <v>566992.1366196779</v>
       </c>
       <c r="P2" t="n">
         <v>566992.1366196781</v>
@@ -26368,13 +26368,13 @@
         <v>126293.3414468129</v>
       </c>
       <c r="C3" t="n">
-        <v>106137.1517703815</v>
+        <v>106137.1517703826</v>
       </c>
       <c r="D3" t="n">
-        <v>316711.9424252128</v>
+        <v>316711.9424252121</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72254.69487113913</v>
+        <v>72254.69487113907</v>
       </c>
       <c r="K3" t="n">
-        <v>24677.24609313362</v>
+        <v>24677.24609313382</v>
       </c>
       <c r="L3" t="n">
-        <v>76496.15793817195</v>
+        <v>76496.15793817176</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26420,22 +26420,22 @@
         <v>291749.0011542653</v>
       </c>
       <c r="C4" t="n">
-        <v>261372.5469563276</v>
+        <v>261372.5469563273</v>
       </c>
       <c r="D4" t="n">
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26453,13 +26453,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687066</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>51181.37951678014</v>
       </c>
       <c r="C5" t="n">
-        <v>58810.42201485697</v>
+        <v>58810.42201485706</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126031.5610337473</v>
+        <v>126031.5610337472</v>
       </c>
       <c r="C6" t="n">
-        <v>168935.1624100393</v>
+        <v>168935.1624100384</v>
       </c>
       <c r="D6" t="n">
-        <v>30051.39487645825</v>
+        <v>30051.39487645897</v>
       </c>
       <c r="E6" t="n">
-        <v>-72329.83339280549</v>
+        <v>-73304.42465252719</v>
       </c>
       <c r="F6" t="n">
-        <v>452830.2030840905</v>
+        <v>451855.6118243692</v>
       </c>
       <c r="G6" t="n">
-        <v>452830.2030840911</v>
+        <v>451855.6118243687</v>
       </c>
       <c r="H6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="I6" t="n">
-        <v>452830.2030840907</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="J6" t="n">
-        <v>380575.5082129516</v>
+        <v>379600.9169532299</v>
       </c>
       <c r="K6" t="n">
-        <v>428152.9569909571</v>
+        <v>427178.3657312352</v>
       </c>
       <c r="L6" t="n">
-        <v>376334.0451459187</v>
+        <v>375359.4538861972</v>
       </c>
       <c r="M6" t="n">
-        <v>318029.1878502535</v>
+        <v>317054.5965905316</v>
       </c>
       <c r="N6" t="n">
-        <v>452830.203084091</v>
+        <v>451855.6118243691</v>
       </c>
       <c r="O6" t="n">
-        <v>452830.2030840906</v>
+        <v>451855.6118243693</v>
       </c>
       <c r="P6" t="n">
-        <v>452830.2030840908</v>
+        <v>451855.6118243691</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.42478237957779e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>117.5602045593872</v>
+        <v>117.5602045593881</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26792,7 +26792,7 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>372.03963084642</v>
+        <v>372.039630846421</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>35.02126071912529</v>
       </c>
       <c r="C3" t="n">
-        <v>82.53894384026194</v>
+        <v>82.53894384026279</v>
       </c>
       <c r="D3" t="n">
-        <v>260.1834596576991</v>
+        <v>260.1834596576986</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="C4" t="n">
-        <v>95.88311714406463</v>
+        <v>95.88311714406561</v>
       </c>
       <c r="D4" t="n">
-        <v>302.2476419081356</v>
+        <v>302.2476419081346</v>
       </c>
       <c r="E4" t="n">
         <v>540.9263704990177</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.1565137023556</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.8831171440646</v>
+        <v>95.88311714406538</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081356</v>
+        <v>302.2476419081348</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>276.1565137023554</v>
       </c>
       <c r="K4" t="n">
-        <v>95.88311714406463</v>
+        <v>95.88311714406561</v>
       </c>
       <c r="L4" t="n">
-        <v>302.2476419081356</v>
+        <v>302.2476419081346</v>
       </c>
       <c r="M4" t="n">
         <v>540.9263704990177</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>129.0315374170025</v>
       </c>
       <c r="F2" t="n">
+        <v>130.719532039356</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>139.005434824964</v>
-      </c>
       <c r="H2" t="n">
-        <v>61.87643319194541</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I2" t="n">
-        <v>39.36611909964432</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T2" t="n">
         <v>222.4795457699687</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3343897888113</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777948</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S3" t="n">
         <v>170.2839726213331</v>
@@ -27514,19 +27514,19 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9364262421938</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>105.1052610790637</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.4476675709589</v>
       </c>
     </row>
     <row r="4">
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>111.3918043887131</v>
+        <v>111.3918043887132</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>10.69421081705957</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>49.51218417305631</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>254.6668556933171</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>334.6347480657417</v>
       </c>
       <c r="I5" t="n">
-        <v>192.2558301280912</v>
+        <v>192.2558301280911</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>120.1819171385221</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>198.2506096409306</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0270262658049</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3078446008425</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>96.47168056055878</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,10 +27712,10 @@
         <v>137.0906518175546</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>109.7932973455552</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.69052336281888</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>84.45800155129692</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.9863082141302</v>
       </c>
       <c r="T6" t="n">
         <v>199.1455039024624</v>
       </c>
       <c r="U6" t="n">
-        <v>119.9927285791124</v>
+        <v>225.9247462029711</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>33.27626274992946</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>149.0752428504967</v>
       </c>
       <c r="J7" t="n">
-        <v>78.371217643585</v>
+        <v>78.37121764358488</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>68.41045236322678</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>167.7613787255181</v>
       </c>
       <c r="S7" t="n">
-        <v>173.907923789294</v>
+        <v>220.3221240674584</v>
       </c>
       <c r="T7" t="n">
         <v>227.0397976882338</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>245.6307695159924</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>65.60828460674293</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>96.25160475629454</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.632298752070436e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28496,7 +28496,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.487817442267745e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -30717,7 +30717,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4726038374246719</v>
+        <v>0.4726038374246754</v>
       </c>
       <c r="H5" t="n">
-        <v>4.840054050025422</v>
+        <v>4.840054050025458</v>
       </c>
       <c r="I5" t="n">
-        <v>18.22005944231468</v>
+        <v>18.22005944231481</v>
       </c>
       <c r="J5" t="n">
-        <v>40.11165994662228</v>
+        <v>40.11165994662257</v>
       </c>
       <c r="K5" t="n">
-        <v>60.11698038480866</v>
+        <v>60.1169803848091</v>
       </c>
       <c r="L5" t="n">
-        <v>74.58043007439397</v>
+        <v>74.58043007439451</v>
       </c>
       <c r="M5" t="n">
-        <v>82.98509856819499</v>
+        <v>82.98509856819558</v>
       </c>
       <c r="N5" t="n">
-        <v>84.32788422127784</v>
+        <v>84.32788422127845</v>
       </c>
       <c r="O5" t="n">
-        <v>79.62842981288625</v>
+        <v>79.62842981288684</v>
       </c>
       <c r="P5" t="n">
-        <v>67.96102257646466</v>
+        <v>67.96102257646515</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.03589764869358</v>
+        <v>51.03589764869395</v>
       </c>
       <c r="R5" t="n">
-        <v>29.68720080262758</v>
+        <v>29.68720080262779</v>
       </c>
       <c r="S5" t="n">
-        <v>10.76945994531472</v>
+        <v>10.7694599453148</v>
       </c>
       <c r="T5" t="n">
-        <v>2.068823298326502</v>
+        <v>2.068823298326517</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03780830699397374</v>
+        <v>0.03780830699397402</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2528653456560405</v>
+        <v>0.2528653456560423</v>
       </c>
       <c r="H6" t="n">
-        <v>2.442146890941233</v>
+        <v>2.442146890941251</v>
       </c>
       <c r="I6" t="n">
-        <v>8.70610948859613</v>
+        <v>8.706109488596194</v>
       </c>
       <c r="J6" t="n">
-        <v>23.89022987182793</v>
+        <v>23.8902298718281</v>
       </c>
       <c r="K6" t="n">
-        <v>40.83220803078264</v>
+        <v>40.83220803078294</v>
       </c>
       <c r="L6" t="n">
-        <v>54.90394270483458</v>
+        <v>54.90394270483498</v>
       </c>
       <c r="M6" t="n">
-        <v>64.07031148486604</v>
+        <v>64.07031148486649</v>
       </c>
       <c r="N6" t="n">
-        <v>65.76606198270852</v>
+        <v>65.766061982709</v>
       </c>
       <c r="O6" t="n">
-        <v>60.16309827106679</v>
+        <v>60.16309827106722</v>
       </c>
       <c r="P6" t="n">
-        <v>48.28619043496794</v>
+        <v>48.28619043496829</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.27803956128685</v>
+        <v>32.27803956128709</v>
       </c>
       <c r="R6" t="n">
-        <v>15.6998326013461</v>
+        <v>15.69983260134621</v>
       </c>
       <c r="S6" t="n">
-        <v>4.696862889707591</v>
+        <v>4.696862889707624</v>
       </c>
       <c r="T6" t="n">
-        <v>1.019224792359215</v>
+        <v>1.019224792359223</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01663587800368688</v>
+        <v>0.016635878003687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2119938115005343</v>
+        <v>0.2119938115005359</v>
       </c>
       <c r="H7" t="n">
-        <v>1.88481770588657</v>
+        <v>1.884817705886584</v>
       </c>
       <c r="I7" t="n">
-        <v>6.375232076761526</v>
+        <v>6.375232076761572</v>
       </c>
       <c r="J7" t="n">
-        <v>14.98796247308778</v>
+        <v>14.98796247308788</v>
       </c>
       <c r="K7" t="n">
-        <v>24.62982646342571</v>
+        <v>24.62982646342589</v>
       </c>
       <c r="L7" t="n">
-        <v>31.5176981207249</v>
+        <v>31.51769812072513</v>
       </c>
       <c r="M7" t="n">
-        <v>33.23099356094284</v>
+        <v>33.23099356094308</v>
       </c>
       <c r="N7" t="n">
-        <v>32.44083480898634</v>
+        <v>32.44083480898657</v>
       </c>
       <c r="O7" t="n">
-        <v>29.96436164736645</v>
+        <v>29.96436164736666</v>
       </c>
       <c r="P7" t="n">
-        <v>25.63968789275552</v>
+        <v>25.63968789275571</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.75159088846747</v>
+        <v>17.7515908884676</v>
       </c>
       <c r="R7" t="n">
-        <v>9.532012651651296</v>
+        <v>9.532012651651364</v>
       </c>
       <c r="S7" t="n">
-        <v>3.694473969513856</v>
+        <v>3.694473969513883</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9057917400477373</v>
+        <v>0.9057917400477439</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01156329880912007</v>
+        <v>0.01156329880912015</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.370323552522125</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.7877391315784</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M3" t="n">
-        <v>204.0920904142118</v>
+        <v>276.1565137023554</v>
       </c>
       <c r="N3" t="n">
         <v>276.1565137023554</v>
@@ -34795,10 +34795,10 @@
         <v>269.1887005891755</v>
       </c>
       <c r="P3" t="n">
-        <v>198.8728484821095</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.16237059200976</v>
+        <v>28.16237059201006</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1725419109929</v>
+        <v>164.1725419109933</v>
       </c>
       <c r="L5" t="n">
-        <v>256.4752296548572</v>
+        <v>256.4752296548577</v>
       </c>
       <c r="M5" t="n">
-        <v>302.1523988337548</v>
+        <v>302.1523988337553</v>
       </c>
       <c r="N5" t="n">
-        <v>292.2617450366711</v>
+        <v>292.2617450366717</v>
       </c>
       <c r="O5" t="n">
-        <v>230.3303996539449</v>
+        <v>230.3303996539454</v>
       </c>
       <c r="P5" t="n">
-        <v>158.5267349926777</v>
+        <v>158.5267349926783</v>
       </c>
       <c r="Q5" t="n">
-        <v>41.04519843414877</v>
+        <v>41.04519843414914</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.14363854557007</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>167.4560060690022</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>287.1899082284195</v>
+        <v>287.18990822842</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>269.6933552702924</v>
       </c>
       <c r="N6" t="n">
-        <v>348.7597882910241</v>
+        <v>372.039630846421</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4291731033519</v>
+        <v>311.4291731033523</v>
       </c>
       <c r="P6" t="n">
-        <v>232.7745516605749</v>
+        <v>232.7745516605752</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.3735532111144</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.360334637542859</v>
+        <v>2.360334637543037</v>
       </c>
       <c r="L7" t="n">
-        <v>59.10772338104104</v>
+        <v>59.10772338104127</v>
       </c>
       <c r="M7" t="n">
-        <v>72.81487052278342</v>
+        <v>72.81487052278368</v>
       </c>
       <c r="N7" t="n">
-        <v>76.57300718821493</v>
+        <v>76.57300718821517</v>
       </c>
       <c r="O7" t="n">
-        <v>54.54948956140612</v>
+        <v>54.54948956140633</v>
       </c>
       <c r="P7" t="n">
-        <v>22.91824715764901</v>
+        <v>22.9182471576492</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.40709186246</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35734,10 +35734,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,16 +36442,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
@@ -36679,16 +36679,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36916,16 +36916,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
